--- a/2022/Samsung/MARCH/06.03.2022/SAMSUNG Bank Statement March-2022.xlsx
+++ b/2022/Samsung/MARCH/06.03.2022/SAMSUNG Bank Statement March-2022.xlsx
@@ -2886,6 +2886,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="42" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="34" fillId="42" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2897,12 +2903,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2935,6 +2935,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="37" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3019,12 +3025,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="42" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="34" fillId="42" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3484,33 +3484,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="322"/>
-      <c r="B1" s="322"/>
-      <c r="C1" s="322"/>
-      <c r="D1" s="322"/>
-      <c r="E1" s="322"/>
-      <c r="F1" s="322"/>
+      <c r="A1" s="324"/>
+      <c r="B1" s="324"/>
+      <c r="C1" s="324"/>
+      <c r="D1" s="324"/>
+      <c r="E1" s="324"/>
+      <c r="F1" s="324"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="323"/>
-      <c r="B2" s="320" t="s">
+      <c r="A2" s="325"/>
+      <c r="B2" s="322" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="320"/>
-      <c r="D2" s="320"/>
-      <c r="E2" s="320"/>
+      <c r="C2" s="322"/>
+      <c r="D2" s="322"/>
+      <c r="E2" s="322"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="323"/>
-      <c r="B3" s="321" t="s">
+      <c r="A3" s="325"/>
+      <c r="B3" s="323" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="321"/>
-      <c r="D3" s="321"/>
-      <c r="E3" s="321"/>
+      <c r="C3" s="323"/>
+      <c r="D3" s="323"/>
+      <c r="E3" s="323"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="323"/>
+      <c r="A4" s="325"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -3528,7 +3528,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="323"/>
+      <c r="A5" s="325"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -3546,7 +3546,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="323"/>
+      <c r="A6" s="325"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -3558,7 +3558,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="323"/>
+      <c r="A7" s="325"/>
       <c r="B7" s="26" t="s">
         <v>44</v>
       </c>
@@ -3577,7 +3577,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="323"/>
+      <c r="A8" s="325"/>
       <c r="B8" s="26" t="s">
         <v>45</v>
       </c>
@@ -3596,7 +3596,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="323"/>
+      <c r="A9" s="325"/>
       <c r="B9" s="26" t="s">
         <v>47</v>
       </c>
@@ -3615,7 +3615,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="323"/>
+      <c r="A10" s="325"/>
       <c r="B10" s="26" t="s">
         <v>48</v>
       </c>
@@ -3634,7 +3634,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="323"/>
+      <c r="A11" s="325"/>
       <c r="B11" s="26" t="s">
         <v>49</v>
       </c>
@@ -3653,7 +3653,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="323"/>
+      <c r="A12" s="325"/>
       <c r="B12" s="26" t="s">
         <v>50</v>
       </c>
@@ -3672,7 +3672,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="323"/>
+      <c r="A13" s="325"/>
       <c r="B13" s="26" t="s">
         <v>51</v>
       </c>
@@ -3691,7 +3691,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="323"/>
+      <c r="A14" s="325"/>
       <c r="B14" s="26" t="s">
         <v>52</v>
       </c>
@@ -3710,7 +3710,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="323"/>
+      <c r="A15" s="325"/>
       <c r="B15" s="26" t="s">
         <v>53</v>
       </c>
@@ -3729,7 +3729,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="323"/>
+      <c r="A16" s="325"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -3742,7 +3742,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="323"/>
+      <c r="A17" s="325"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -3755,7 +3755,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="323"/>
+      <c r="A18" s="325"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -3768,7 +3768,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="323"/>
+      <c r="A19" s="325"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -3781,7 +3781,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="323"/>
+      <c r="A20" s="325"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -3794,7 +3794,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="323"/>
+      <c r="A21" s="325"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -3807,7 +3807,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="323"/>
+      <c r="A22" s="325"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -3820,7 +3820,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="323"/>
+      <c r="A23" s="325"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -3833,7 +3833,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="323"/>
+      <c r="A24" s="325"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -3846,7 +3846,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="323"/>
+      <c r="A25" s="325"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -3859,7 +3859,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="323"/>
+      <c r="A26" s="325"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -3872,7 +3872,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="323"/>
+      <c r="A27" s="325"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -3885,7 +3885,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="323"/>
+      <c r="A28" s="325"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -3898,7 +3898,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="323"/>
+      <c r="A29" s="325"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -3911,7 +3911,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="323"/>
+      <c r="A30" s="325"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -3924,7 +3924,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="323"/>
+      <c r="A31" s="325"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -3937,7 +3937,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="323"/>
+      <c r="A32" s="325"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -3950,7 +3950,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="323"/>
+      <c r="A33" s="325"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -3963,7 +3963,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="323"/>
+      <c r="A34" s="325"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -3976,7 +3976,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="323"/>
+      <c r="A35" s="325"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -3989,7 +3989,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="323"/>
+      <c r="A36" s="325"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -4002,7 +4002,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="323"/>
+      <c r="A37" s="325"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -4015,7 +4015,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="323"/>
+      <c r="A38" s="325"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -4028,7 +4028,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="323"/>
+      <c r="A39" s="325"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4041,7 +4041,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="323"/>
+      <c r="A40" s="325"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4054,7 +4054,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="323"/>
+      <c r="A41" s="325"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -4067,7 +4067,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="323"/>
+      <c r="A42" s="325"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -4080,7 +4080,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="323"/>
+      <c r="A43" s="325"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -4093,7 +4093,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="323"/>
+      <c r="A44" s="325"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -4106,7 +4106,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="323"/>
+      <c r="A45" s="325"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4119,7 +4119,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="323"/>
+      <c r="A46" s="325"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4132,7 +4132,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="323"/>
+      <c r="A47" s="325"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -4145,7 +4145,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="323"/>
+      <c r="A48" s="325"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -4158,7 +4158,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="323"/>
+      <c r="A49" s="325"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -4171,7 +4171,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="323"/>
+      <c r="A50" s="325"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -4184,7 +4184,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="323"/>
+      <c r="A51" s="325"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -4197,7 +4197,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="323"/>
+      <c r="A52" s="325"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -4210,7 +4210,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="323"/>
+      <c r="A53" s="325"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -4223,7 +4223,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="323"/>
+      <c r="A54" s="325"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -4236,7 +4236,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="323"/>
+      <c r="A55" s="325"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -4248,7 +4248,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="323"/>
+      <c r="A56" s="325"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -4260,7 +4260,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="323"/>
+      <c r="A57" s="325"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -4272,7 +4272,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="323"/>
+      <c r="A58" s="325"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -4284,7 +4284,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="323"/>
+      <c r="A59" s="325"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -4296,7 +4296,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="323"/>
+      <c r="A60" s="325"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -4308,7 +4308,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="323"/>
+      <c r="A61" s="325"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -4320,7 +4320,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="323"/>
+      <c r="A62" s="325"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -4332,7 +4332,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="323"/>
+      <c r="A63" s="325"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -4344,7 +4344,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="323"/>
+      <c r="A64" s="325"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -4356,7 +4356,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="323"/>
+      <c r="A65" s="325"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -4368,7 +4368,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="323"/>
+      <c r="A66" s="325"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -4380,7 +4380,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="323"/>
+      <c r="A67" s="325"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -4392,7 +4392,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="323"/>
+      <c r="A68" s="325"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -4404,7 +4404,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="323"/>
+      <c r="A69" s="325"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -4416,7 +4416,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="323"/>
+      <c r="A70" s="325"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -4428,7 +4428,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="323"/>
+      <c r="A71" s="325"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -4440,7 +4440,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="323"/>
+      <c r="A72" s="325"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -4452,7 +4452,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="323"/>
+      <c r="A73" s="325"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -4464,7 +4464,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="323"/>
+      <c r="A74" s="325"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -4476,7 +4476,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="323"/>
+      <c r="A75" s="325"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -4488,7 +4488,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="323"/>
+      <c r="A76" s="325"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -4500,7 +4500,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="323"/>
+      <c r="A77" s="325"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -4512,7 +4512,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="323"/>
+      <c r="A78" s="325"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -4524,7 +4524,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="323"/>
+      <c r="A79" s="325"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -4536,7 +4536,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="323"/>
+      <c r="A80" s="325"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -4548,7 +4548,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="323"/>
+      <c r="A81" s="325"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -4560,7 +4560,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="323"/>
+      <c r="A82" s="325"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -4572,7 +4572,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="323"/>
+      <c r="A83" s="325"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -5223,33 +5223,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A1" s="322"/>
-      <c r="B1" s="322"/>
-      <c r="C1" s="322"/>
-      <c r="D1" s="322"/>
-      <c r="E1" s="322"/>
-      <c r="F1" s="322"/>
+      <c r="A1" s="324"/>
+      <c r="B1" s="324"/>
+      <c r="C1" s="324"/>
+      <c r="D1" s="324"/>
+      <c r="E1" s="324"/>
+      <c r="F1" s="324"/>
     </row>
     <row r="2" spans="1:7" ht="20.25">
-      <c r="A2" s="323"/>
-      <c r="B2" s="320" t="s">
+      <c r="A2" s="325"/>
+      <c r="B2" s="322" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="320"/>
-      <c r="D2" s="320"/>
-      <c r="E2" s="320"/>
+      <c r="C2" s="322"/>
+      <c r="D2" s="322"/>
+      <c r="E2" s="322"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A3" s="323"/>
-      <c r="B3" s="321" t="s">
+      <c r="A3" s="325"/>
+      <c r="B3" s="323" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="321"/>
-      <c r="D3" s="321"/>
-      <c r="E3" s="321"/>
+      <c r="C3" s="323"/>
+      <c r="D3" s="323"/>
+      <c r="E3" s="323"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="323"/>
+      <c r="A4" s="325"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -5267,7 +5267,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="323"/>
+      <c r="A5" s="325"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -5285,7 +5285,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="323"/>
+      <c r="A6" s="325"/>
       <c r="B6" s="26"/>
       <c r="C6" s="247"/>
       <c r="D6" s="247"/>
@@ -5297,7 +5297,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="323"/>
+      <c r="A7" s="325"/>
       <c r="B7" s="26" t="s">
         <v>139</v>
       </c>
@@ -5315,7 +5315,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="323"/>
+      <c r="A8" s="325"/>
       <c r="B8" s="26" t="s">
         <v>149</v>
       </c>
@@ -5335,7 +5335,7 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="323"/>
+      <c r="A9" s="325"/>
       <c r="B9" s="26" t="s">
         <v>155</v>
       </c>
@@ -5353,7 +5353,7 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="323"/>
+      <c r="A10" s="325"/>
       <c r="B10" s="26"/>
       <c r="C10" s="249"/>
       <c r="D10" s="249"/>
@@ -5365,7 +5365,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="323"/>
+      <c r="A11" s="325"/>
       <c r="B11" s="26" t="s">
         <v>160</v>
       </c>
@@ -5383,7 +5383,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="323"/>
+      <c r="A12" s="325"/>
       <c r="B12" s="26" t="s">
         <v>162</v>
       </c>
@@ -5403,7 +5403,7 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="323"/>
+      <c r="A13" s="325"/>
       <c r="B13" s="26"/>
       <c r="C13" s="313"/>
       <c r="D13" s="313"/>
@@ -5415,7 +5415,7 @@
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="323"/>
+      <c r="A14" s="325"/>
       <c r="B14" s="26"/>
       <c r="C14" s="247"/>
       <c r="D14" s="247"/>
@@ -5427,7 +5427,7 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="323"/>
+      <c r="A15" s="325"/>
       <c r="B15" s="26"/>
       <c r="C15" s="247"/>
       <c r="D15" s="247"/>
@@ -5439,7 +5439,7 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="323"/>
+      <c r="A16" s="325"/>
       <c r="B16" s="26"/>
       <c r="C16" s="247"/>
       <c r="D16" s="247"/>
@@ -5451,7 +5451,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="323"/>
+      <c r="A17" s="325"/>
       <c r="B17" s="26"/>
       <c r="C17" s="247"/>
       <c r="D17" s="247"/>
@@ -5463,7 +5463,7 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="323"/>
+      <c r="A18" s="325"/>
       <c r="B18" s="26"/>
       <c r="C18" s="247"/>
       <c r="D18" s="247"/>
@@ -5475,7 +5475,7 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A19" s="323"/>
+      <c r="A19" s="325"/>
       <c r="B19" s="26"/>
       <c r="C19" s="247"/>
       <c r="D19" s="249"/>
@@ -5487,7 +5487,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="323"/>
+      <c r="A20" s="325"/>
       <c r="B20" s="26"/>
       <c r="C20" s="247"/>
       <c r="D20" s="247"/>
@@ -5499,7 +5499,7 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="323"/>
+      <c r="A21" s="325"/>
       <c r="B21" s="26"/>
       <c r="C21" s="247"/>
       <c r="D21" s="247"/>
@@ -5511,7 +5511,7 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="323"/>
+      <c r="A22" s="325"/>
       <c r="B22" s="26"/>
       <c r="C22" s="247"/>
       <c r="D22" s="247"/>
@@ -5523,7 +5523,7 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="323"/>
+      <c r="A23" s="325"/>
       <c r="B23" s="26"/>
       <c r="C23" s="247"/>
       <c r="D23" s="247"/>
@@ -5535,7 +5535,7 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="323"/>
+      <c r="A24" s="325"/>
       <c r="B24" s="26"/>
       <c r="C24" s="247"/>
       <c r="D24" s="247"/>
@@ -5547,7 +5547,7 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="323"/>
+      <c r="A25" s="325"/>
       <c r="B25" s="26"/>
       <c r="C25" s="247"/>
       <c r="D25" s="247"/>
@@ -5559,7 +5559,7 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="323"/>
+      <c r="A26" s="325"/>
       <c r="B26" s="26"/>
       <c r="C26" s="247"/>
       <c r="D26" s="247"/>
@@ -5571,7 +5571,7 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="323"/>
+      <c r="A27" s="325"/>
       <c r="B27" s="26"/>
       <c r="C27" s="247"/>
       <c r="D27" s="247"/>
@@ -5583,7 +5583,7 @@
       <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="323"/>
+      <c r="A28" s="325"/>
       <c r="B28" s="26"/>
       <c r="C28" s="247"/>
       <c r="D28" s="247"/>
@@ -5595,7 +5595,7 @@
       <c r="G28" s="21"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="323"/>
+      <c r="A29" s="325"/>
       <c r="B29" s="26"/>
       <c r="C29" s="247"/>
       <c r="D29" s="247"/>
@@ -5607,7 +5607,7 @@
       <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="323"/>
+      <c r="A30" s="325"/>
       <c r="B30" s="26"/>
       <c r="C30" s="247"/>
       <c r="D30" s="247"/>
@@ -5619,7 +5619,7 @@
       <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="323"/>
+      <c r="A31" s="325"/>
       <c r="B31" s="26"/>
       <c r="C31" s="247"/>
       <c r="D31" s="247"/>
@@ -5631,7 +5631,7 @@
       <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="323"/>
+      <c r="A32" s="325"/>
       <c r="B32" s="26"/>
       <c r="C32" s="247"/>
       <c r="D32" s="247"/>
@@ -5643,7 +5643,7 @@
       <c r="G32" s="21"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="323"/>
+      <c r="A33" s="325"/>
       <c r="B33" s="26"/>
       <c r="C33" s="247"/>
       <c r="D33" s="249"/>
@@ -5655,7 +5655,7 @@
       <c r="G33" s="21"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="323"/>
+      <c r="A34" s="325"/>
       <c r="B34" s="26"/>
       <c r="C34" s="247"/>
       <c r="D34" s="247"/>
@@ -5667,7 +5667,7 @@
       <c r="G34" s="21"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="323"/>
+      <c r="A35" s="325"/>
       <c r="B35" s="26"/>
       <c r="C35" s="247"/>
       <c r="D35" s="247"/>
@@ -5679,7 +5679,7 @@
       <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="323"/>
+      <c r="A36" s="325"/>
       <c r="B36" s="26"/>
       <c r="C36" s="247"/>
       <c r="D36" s="247"/>
@@ -5691,7 +5691,7 @@
       <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="323"/>
+      <c r="A37" s="325"/>
       <c r="B37" s="26"/>
       <c r="C37" s="247"/>
       <c r="D37" s="247"/>
@@ -5703,7 +5703,7 @@
       <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="323"/>
+      <c r="A38" s="325"/>
       <c r="B38" s="26"/>
       <c r="C38" s="247"/>
       <c r="D38" s="247"/>
@@ -5715,7 +5715,7 @@
       <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="323"/>
+      <c r="A39" s="325"/>
       <c r="B39" s="26"/>
       <c r="C39" s="247"/>
       <c r="D39" s="247"/>
@@ -5727,7 +5727,7 @@
       <c r="G39" s="21"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="323"/>
+      <c r="A40" s="325"/>
       <c r="B40" s="26"/>
       <c r="C40" s="247"/>
       <c r="D40" s="247"/>
@@ -5739,7 +5739,7 @@
       <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="323"/>
+      <c r="A41" s="325"/>
       <c r="B41" s="26"/>
       <c r="C41" s="247"/>
       <c r="D41" s="247"/>
@@ -5751,7 +5751,7 @@
       <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="323"/>
+      <c r="A42" s="325"/>
       <c r="B42" s="26"/>
       <c r="C42" s="247"/>
       <c r="D42" s="247"/>
@@ -5763,7 +5763,7 @@
       <c r="G42" s="21"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="323"/>
+      <c r="A43" s="325"/>
       <c r="B43" s="26"/>
       <c r="C43" s="247"/>
       <c r="D43" s="247"/>
@@ -5775,7 +5775,7 @@
       <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="323"/>
+      <c r="A44" s="325"/>
       <c r="B44" s="26"/>
       <c r="C44" s="247"/>
       <c r="D44" s="247"/>
@@ -5787,7 +5787,7 @@
       <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="323"/>
+      <c r="A45" s="325"/>
       <c r="B45" s="26"/>
       <c r="C45" s="247"/>
       <c r="D45" s="247"/>
@@ -5799,7 +5799,7 @@
       <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="323"/>
+      <c r="A46" s="325"/>
       <c r="B46" s="26"/>
       <c r="C46" s="247"/>
       <c r="D46" s="247"/>
@@ -5811,7 +5811,7 @@
       <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="323"/>
+      <c r="A47" s="325"/>
       <c r="B47" s="26"/>
       <c r="C47" s="247"/>
       <c r="D47" s="247"/>
@@ -5823,7 +5823,7 @@
       <c r="G47" s="21"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="323"/>
+      <c r="A48" s="325"/>
       <c r="B48" s="26"/>
       <c r="C48" s="247"/>
       <c r="D48" s="247"/>
@@ -5835,7 +5835,7 @@
       <c r="G48" s="21"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="323"/>
+      <c r="A49" s="325"/>
       <c r="B49" s="26"/>
       <c r="C49" s="247"/>
       <c r="D49" s="247"/>
@@ -5847,7 +5847,7 @@
       <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="323"/>
+      <c r="A50" s="325"/>
       <c r="B50" s="26"/>
       <c r="C50" s="247"/>
       <c r="D50" s="247"/>
@@ -5859,7 +5859,7 @@
       <c r="G50" s="21"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="323"/>
+      <c r="A51" s="325"/>
       <c r="B51" s="26"/>
       <c r="C51" s="247"/>
       <c r="D51" s="247"/>
@@ -5871,7 +5871,7 @@
       <c r="G51" s="21"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="323"/>
+      <c r="A52" s="325"/>
       <c r="B52" s="26"/>
       <c r="C52" s="247"/>
       <c r="D52" s="247"/>
@@ -5883,7 +5883,7 @@
       <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="323"/>
+      <c r="A53" s="325"/>
       <c r="B53" s="26"/>
       <c r="C53" s="247"/>
       <c r="D53" s="247"/>
@@ -5895,7 +5895,7 @@
       <c r="G53" s="21"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="323"/>
+      <c r="A54" s="325"/>
       <c r="B54" s="26"/>
       <c r="C54" s="247"/>
       <c r="D54" s="247"/>
@@ -5907,7 +5907,7 @@
       <c r="G54" s="21"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="323"/>
+      <c r="A55" s="325"/>
       <c r="B55" s="26"/>
       <c r="C55" s="247"/>
       <c r="D55" s="247"/>
@@ -5918,7 +5918,7 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="323"/>
+      <c r="A56" s="325"/>
       <c r="B56" s="26"/>
       <c r="C56" s="247"/>
       <c r="D56" s="247"/>
@@ -5929,7 +5929,7 @@
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="323"/>
+      <c r="A57" s="325"/>
       <c r="B57" s="26"/>
       <c r="C57" s="247"/>
       <c r="D57" s="247"/>
@@ -5940,7 +5940,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="323"/>
+      <c r="A58" s="325"/>
       <c r="B58" s="26"/>
       <c r="C58" s="247"/>
       <c r="D58" s="247"/>
@@ -5951,7 +5951,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="323"/>
+      <c r="A59" s="325"/>
       <c r="B59" s="26"/>
       <c r="C59" s="247"/>
       <c r="D59" s="247"/>
@@ -5962,7 +5962,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="323"/>
+      <c r="A60" s="325"/>
       <c r="B60" s="26"/>
       <c r="C60" s="247"/>
       <c r="D60" s="247"/>
@@ -5973,7 +5973,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="323"/>
+      <c r="A61" s="325"/>
       <c r="B61" s="26"/>
       <c r="C61" s="247"/>
       <c r="D61" s="247"/>
@@ -5984,7 +5984,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="323"/>
+      <c r="A62" s="325"/>
       <c r="B62" s="26"/>
       <c r="C62" s="247"/>
       <c r="D62" s="247"/>
@@ -5995,7 +5995,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="323"/>
+      <c r="A63" s="325"/>
       <c r="B63" s="26"/>
       <c r="C63" s="247"/>
       <c r="D63" s="247"/>
@@ -6006,7 +6006,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="323"/>
+      <c r="A64" s="325"/>
       <c r="B64" s="26"/>
       <c r="C64" s="247"/>
       <c r="D64" s="247"/>
@@ -6017,7 +6017,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="323"/>
+      <c r="A65" s="325"/>
       <c r="B65" s="26"/>
       <c r="C65" s="247"/>
       <c r="D65" s="247"/>
@@ -6028,7 +6028,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="323"/>
+      <c r="A66" s="325"/>
       <c r="B66" s="26"/>
       <c r="C66" s="247"/>
       <c r="D66" s="247"/>
@@ -6039,7 +6039,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="323"/>
+      <c r="A67" s="325"/>
       <c r="B67" s="26"/>
       <c r="C67" s="247"/>
       <c r="D67" s="247"/>
@@ -6050,7 +6050,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="323"/>
+      <c r="A68" s="325"/>
       <c r="B68" s="26"/>
       <c r="C68" s="247"/>
       <c r="D68" s="247"/>
@@ -6061,7 +6061,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="323"/>
+      <c r="A69" s="325"/>
       <c r="B69" s="26"/>
       <c r="C69" s="247"/>
       <c r="D69" s="247"/>
@@ -6072,7 +6072,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="323"/>
+      <c r="A70" s="325"/>
       <c r="B70" s="26"/>
       <c r="C70" s="247"/>
       <c r="D70" s="247"/>
@@ -6083,7 +6083,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="323"/>
+      <c r="A71" s="325"/>
       <c r="B71" s="26"/>
       <c r="C71" s="247"/>
       <c r="D71" s="247"/>
@@ -6094,7 +6094,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="323"/>
+      <c r="A72" s="325"/>
       <c r="B72" s="26"/>
       <c r="C72" s="247"/>
       <c r="D72" s="247"/>
@@ -6105,7 +6105,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="323"/>
+      <c r="A73" s="325"/>
       <c r="B73" s="26"/>
       <c r="C73" s="247"/>
       <c r="D73" s="247"/>
@@ -6116,7 +6116,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="323"/>
+      <c r="A74" s="325"/>
       <c r="B74" s="26"/>
       <c r="C74" s="247"/>
       <c r="D74" s="247"/>
@@ -6127,7 +6127,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="323"/>
+      <c r="A75" s="325"/>
       <c r="B75" s="26"/>
       <c r="C75" s="247"/>
       <c r="D75" s="247"/>
@@ -6138,7 +6138,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="323"/>
+      <c r="A76" s="325"/>
       <c r="B76" s="26"/>
       <c r="C76" s="247"/>
       <c r="D76" s="247"/>
@@ -6149,7 +6149,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="323"/>
+      <c r="A77" s="325"/>
       <c r="B77" s="26"/>
       <c r="C77" s="247"/>
       <c r="D77" s="247"/>
@@ -6160,7 +6160,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="323"/>
+      <c r="A78" s="325"/>
       <c r="B78" s="26"/>
       <c r="C78" s="247"/>
       <c r="D78" s="247"/>
@@ -6171,7 +6171,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="323"/>
+      <c r="A79" s="325"/>
       <c r="B79" s="26"/>
       <c r="C79" s="247"/>
       <c r="D79" s="247"/>
@@ -6183,7 +6183,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="323"/>
+      <c r="A80" s="325"/>
       <c r="B80" s="26"/>
       <c r="C80" s="247"/>
       <c r="D80" s="247"/>
@@ -6195,7 +6195,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="323"/>
+      <c r="A81" s="325"/>
       <c r="B81" s="26"/>
       <c r="C81" s="247"/>
       <c r="D81" s="247"/>
@@ -6207,7 +6207,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="323"/>
+      <c r="A82" s="325"/>
       <c r="B82" s="26"/>
       <c r="C82" s="247"/>
       <c r="D82" s="247"/>
@@ -6219,7 +6219,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="323"/>
+      <c r="A83" s="325"/>
       <c r="B83" s="31"/>
       <c r="C83" s="248">
         <f>SUM(C5:C72)</f>
@@ -6349,46 +6349,46 @@
       <c r="B4" s="335" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="324" t="s">
+      <c r="C4" s="337" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="324" t="s">
+      <c r="D4" s="337" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="324" t="s">
+      <c r="E4" s="337" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="324" t="s">
+      <c r="F4" s="337" t="s">
         <v>165</v>
       </c>
-      <c r="G4" s="324" t="s">
+      <c r="G4" s="337" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="324" t="s">
+      <c r="H4" s="337" t="s">
         <v>91</v>
       </c>
-      <c r="I4" s="324" t="s">
+      <c r="I4" s="337" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="324" t="s">
+      <c r="J4" s="337" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="324" t="s">
+      <c r="K4" s="337" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="324" t="s">
+      <c r="L4" s="337" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="324" t="s">
+      <c r="M4" s="337" t="s">
         <v>157</v>
       </c>
-      <c r="N4" s="324" t="s">
+      <c r="N4" s="337" t="s">
         <v>38</v>
       </c>
       <c r="O4" s="326" t="s">
         <v>39</v>
       </c>
-      <c r="P4" s="337" t="s">
+      <c r="P4" s="339" t="s">
         <v>54</v>
       </c>
       <c r="Q4" s="124" t="s">
@@ -6403,20 +6403,20 @@
     <row r="5" spans="1:24" s="66" customFormat="1" ht="13.5" thickBot="1">
       <c r="A5" s="334"/>
       <c r="B5" s="336"/>
-      <c r="C5" s="325"/>
-      <c r="D5" s="325"/>
-      <c r="E5" s="325"/>
-      <c r="F5" s="325"/>
-      <c r="G5" s="325"/>
-      <c r="H5" s="325"/>
-      <c r="I5" s="325"/>
-      <c r="J5" s="325"/>
-      <c r="K5" s="325"/>
-      <c r="L5" s="325"/>
-      <c r="M5" s="325"/>
-      <c r="N5" s="325"/>
+      <c r="C5" s="338"/>
+      <c r="D5" s="338"/>
+      <c r="E5" s="338"/>
+      <c r="F5" s="338"/>
+      <c r="G5" s="338"/>
+      <c r="H5" s="338"/>
+      <c r="I5" s="338"/>
+      <c r="J5" s="338"/>
+      <c r="K5" s="338"/>
+      <c r="L5" s="338"/>
+      <c r="M5" s="338"/>
+      <c r="N5" s="338"/>
       <c r="O5" s="327"/>
-      <c r="P5" s="338"/>
+      <c r="P5" s="340"/>
       <c r="Q5" s="125" t="s">
         <v>40</v>
       </c>
@@ -9352,6 +9352,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
@@ -9368,9 +9371,6 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9383,8 +9383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119"/>
+    <sheetView topLeftCell="A62" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9411,15 +9411,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="344" t="s">
+      <c r="A1" s="346" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="344"/>
-      <c r="C1" s="344"/>
-      <c r="D1" s="344"/>
-      <c r="E1" s="344"/>
-      <c r="F1" s="344"/>
-      <c r="G1" s="344"/>
+      <c r="B1" s="346"/>
+      <c r="C1" s="346"/>
+      <c r="D1" s="346"/>
+      <c r="E1" s="346"/>
+      <c r="F1" s="346"/>
+      <c r="G1" s="346"/>
       <c r="H1" s="59"/>
       <c r="I1" s="141"/>
       <c r="J1" s="141"/>
@@ -9512,15 +9512,15 @@
       <c r="CS1" s="136"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="345" t="s">
+      <c r="A2" s="347" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="345"/>
-      <c r="C2" s="345"/>
-      <c r="D2" s="345"/>
-      <c r="E2" s="345"/>
-      <c r="F2" s="345"/>
-      <c r="G2" s="345"/>
+      <c r="B2" s="347"/>
+      <c r="C2" s="347"/>
+      <c r="D2" s="347"/>
+      <c r="E2" s="347"/>
+      <c r="F2" s="347"/>
+      <c r="G2" s="347"/>
       <c r="H2" s="59"/>
       <c r="I2" s="141"/>
       <c r="J2" s="141"/>
@@ -9613,15 +9613,15 @@
       <c r="CS2" s="136"/>
     </row>
     <row r="3" spans="1:97">
-      <c r="A3" s="346" t="s">
+      <c r="A3" s="348" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="346"/>
-      <c r="C3" s="346"/>
-      <c r="D3" s="346"/>
-      <c r="E3" s="346"/>
-      <c r="F3" s="346"/>
-      <c r="G3" s="346"/>
+      <c r="B3" s="348"/>
+      <c r="C3" s="348"/>
+      <c r="D3" s="348"/>
+      <c r="E3" s="348"/>
+      <c r="F3" s="348"/>
+      <c r="G3" s="348"/>
       <c r="H3" s="59"/>
       <c r="I3" s="141"/>
       <c r="J3" s="141"/>
@@ -12949,12 +12949,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="131"/>
-      <c r="B35" s="341" t="s">
+      <c r="B35" s="343" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="341"/>
-      <c r="D35" s="341"/>
-      <c r="E35" s="341"/>
+      <c r="C35" s="343"/>
+      <c r="D35" s="343"/>
+      <c r="E35" s="343"/>
       <c r="F35" s="132"/>
       <c r="G35" s="137"/>
       <c r="H35" s="137"/>
@@ -13785,10 +13785,10 @@
       <c r="D43" s="206"/>
       <c r="E43" s="174"/>
       <c r="F43" s="132"/>
-      <c r="G43" s="342"/>
-      <c r="H43" s="342"/>
-      <c r="I43" s="342"/>
-      <c r="J43" s="342"/>
+      <c r="G43" s="344"/>
+      <c r="H43" s="344"/>
+      <c r="I43" s="344"/>
+      <c r="J43" s="344"/>
       <c r="K43" s="59"/>
       <c r="L43" s="141"/>
       <c r="M43" s="59"/>
@@ -21854,11 +21854,11 @@
       <c r="CS118" s="136"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="339" t="s">
+      <c r="A119" s="341" t="s">
         <v>27</v>
       </c>
-      <c r="B119" s="340"/>
-      <c r="C119" s="343"/>
+      <c r="B119" s="342"/>
+      <c r="C119" s="345"/>
       <c r="D119" s="210">
         <f>SUM(D37:D118)</f>
         <v>2903600</v>
@@ -22061,11 +22061,11 @@
       <c r="CS120" s="136"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="339" t="s">
+      <c r="A121" s="341" t="s">
         <v>28</v>
       </c>
-      <c r="B121" s="340"/>
-      <c r="C121" s="340"/>
+      <c r="B121" s="342"/>
+      <c r="C121" s="342"/>
       <c r="D121" s="210">
         <f>D119+M121</f>
         <v>2903600</v>
@@ -33300,7 +33300,7 @@
   <dimension ref="A1:Q218"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -33316,35 +33316,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="26.25">
-      <c r="A1" s="350" t="s">
+      <c r="A1" s="352" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="351"/>
-      <c r="C1" s="351"/>
-      <c r="D1" s="351"/>
-      <c r="E1" s="352"/>
+      <c r="B1" s="353"/>
+      <c r="C1" s="353"/>
+      <c r="D1" s="353"/>
+      <c r="E1" s="354"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:17" ht="20.25">
-      <c r="A2" s="359" t="s">
+      <c r="A2" s="361" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="360"/>
-      <c r="C2" s="360"/>
-      <c r="D2" s="360"/>
-      <c r="E2" s="361"/>
+      <c r="B2" s="362"/>
+      <c r="C2" s="362"/>
+      <c r="D2" s="362"/>
+      <c r="E2" s="363"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:17" ht="23.25">
-      <c r="A3" s="353" t="s">
+      <c r="A3" s="355" t="s">
         <v>164</v>
       </c>
-      <c r="B3" s="354"/>
-      <c r="C3" s="354"/>
-      <c r="D3" s="354"/>
-      <c r="E3" s="355"/>
+      <c r="B3" s="356"/>
+      <c r="C3" s="356"/>
+      <c r="D3" s="356"/>
+      <c r="E3" s="357"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="7"/>
@@ -33359,13 +33359,13 @@
       <c r="Q3" s="7"/>
     </row>
     <row r="4" spans="1:17" ht="23.25">
-      <c r="A4" s="362" t="s">
+      <c r="A4" s="364" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="363"/>
-      <c r="C4" s="363"/>
-      <c r="D4" s="363"/>
-      <c r="E4" s="364"/>
+      <c r="B4" s="365"/>
+      <c r="C4" s="365"/>
+      <c r="D4" s="365"/>
+      <c r="E4" s="366"/>
       <c r="F4" s="5"/>
       <c r="G4" s="43"/>
       <c r="H4" s="7"/>
@@ -33380,10 +33380,10 @@
       <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="1:17" ht="21.75">
-      <c r="A5" s="365" t="s">
+      <c r="A5" s="320" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="366">
+      <c r="B5" s="321">
         <v>13000000</v>
       </c>
       <c r="C5" s="40"/>
@@ -33608,7 +33608,7 @@
       <c r="D14" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="E14" s="280">
+      <c r="E14" s="275">
         <v>12250</v>
       </c>
       <c r="F14" s="7"/>
@@ -33697,13 +33697,13 @@
       <c r="Q17" s="7"/>
     </row>
     <row r="18" spans="1:17" ht="23.25" thickBot="1">
-      <c r="A18" s="356" t="s">
+      <c r="A18" s="358" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="357"/>
-      <c r="C18" s="357"/>
-      <c r="D18" s="357"/>
-      <c r="E18" s="358"/>
+      <c r="B18" s="359"/>
+      <c r="C18" s="359"/>
+      <c r="D18" s="359"/>
+      <c r="E18" s="360"/>
       <c r="F18" s="5"/>
       <c r="G18" s="8"/>
       <c r="H18" s="7"/>
@@ -33976,13 +33976,13 @@
       <c r="Q28" s="7"/>
     </row>
     <row r="29" spans="1:17" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A29" s="347" t="s">
+      <c r="A29" s="349" t="s">
         <v>163</v>
       </c>
-      <c r="B29" s="348"/>
-      <c r="C29" s="348"/>
-      <c r="D29" s="348"/>
-      <c r="E29" s="349"/>
+      <c r="B29" s="350"/>
+      <c r="C29" s="350"/>
+      <c r="D29" s="350"/>
+      <c r="E29" s="351"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
